--- a/Lookup_table_spreadsheets/sln_tissue__FluorescentReagent.xlsx
+++ b/Lookup_table_spreadsheets/sln_tissue__FluorescentReagent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/Lookup_table_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F69A24-B2B6-2E49-A093-19816FD516E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3888469-9798-F04E-AE8C-8B0B41371F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21040" yWindow="1880" windowWidth="38820" windowHeight="25880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="127">
   <si>
     <t>705-605-147</t>
   </si>
@@ -171,12 +171,6 @@
     <t>anti-CCK antibody : Rabbit Cholecystokinin (CCK) Polyclonal Antibody</t>
   </si>
   <si>
-    <t>Streptavidin_568</t>
-  </si>
-  <si>
-    <t>Streptavidin_488</t>
-  </si>
-  <si>
     <t>X-CCK_FITCconjugate</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>donkey-X-goat_405</t>
   </si>
   <si>
-    <t>donkey-X-mouse_488</t>
-  </si>
-  <si>
     <t xml:space="preserve">donkey-X-rabbit_405 </t>
   </si>
   <si>
@@ -412,6 +403,27 @@
   </si>
   <si>
     <t>Cy7 / 750</t>
+  </si>
+  <si>
+    <t>4′,6-Diamidine-2′-phenylindole dihydrochloride</t>
+  </si>
+  <si>
+    <t>streptavidin_568</t>
+  </si>
+  <si>
+    <t>streptavidin_488</t>
+  </si>
+  <si>
+    <t>donkey-X-goat_647_thermofisher</t>
+  </si>
+  <si>
+    <t>donkey-X-goat_647_jackson</t>
+  </si>
+  <si>
+    <t>donkey-X-mouse_488_thermofisher</t>
+  </si>
+  <si>
+    <t>donkey-X-mouse_488_jackson</t>
   </si>
 </sst>
 </file>
@@ -1072,11 +1084,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1134,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -1151,7 +1163,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
@@ -1180,7 +1192,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>38</v>
@@ -1209,7 +1221,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>39</v>
@@ -1238,7 +1250,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>41</v>
@@ -1247,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -1267,10 +1279,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -1282,7 +1294,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>26</v>
@@ -1291,21 +1303,21 @@
         <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>36</v>
@@ -1320,15 +1332,15 @@
         <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -1354,10 +1366,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -1383,13 +1395,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>21</v>
@@ -1412,10 +1424,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -1441,10 +1453,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1470,10 +1482,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1494,15 +1506,15 @@
         <v>30</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -1528,10 +1540,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1557,16 +1569,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>36</v>
@@ -1586,16 +1598,16 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>36</v>
@@ -1610,24 +1622,24 @@
         <v>30</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2">
         <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>36</v>
@@ -1639,18 +1651,18 @@
         <v>30</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" s="14">
         <v>500</v>
@@ -1668,18 +1680,18 @@
         <v>33</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D21" s="20">
         <v>250</v>
@@ -1688,27 +1700,27 @@
         <v>36</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D22" s="14">
         <v>500</v>
@@ -1726,18 +1738,18 @@
         <v>30</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D23" s="14">
         <v>500</v>
@@ -1755,7 +1767,7 @@
         <v>33</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
@@ -1763,13 +1775,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" s="14">
         <v>500</v>
@@ -1787,7 +1799,7 @@
         <v>30</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
@@ -1795,13 +1807,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D25" s="14">
         <v>500</v>
@@ -1810,7 +1822,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>26</v>
@@ -1827,13 +1839,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D26" s="20">
         <v>500</v>
@@ -1842,7 +1854,7 @@
         <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>26</v>
@@ -1851,36 +1863,36 @@
         <v>33</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>26</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
@@ -1888,13 +1900,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D28" s="15">
         <v>500</v>
@@ -1912,18 +1924,18 @@
         <v>33</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D29" s="15">
         <v>250</v>
@@ -1941,44 +1953,44 @@
         <v>31</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D30" s="15">
         <v>250</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -1999,7 +2011,36 @@
         <v>32</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="7">
+        <v>10236276001</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
